--- a/SISホームページ/SISスケジュール（李亨俊、李吉宰）.xlsx
+++ b/SISホームページ/SISスケジュール（李亨俊、李吉宰）.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이길재\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisnt\OneDrive\デスクトップ\project_SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A57ED0-3256-429E-B735-15BEA46CA32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>SIS-002</author>
   </authors>
   <commentList>
-    <comment ref="H28" authorId="0" shapeId="0">
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{C59D4244-5C2C-4027-8A55-DF30B19AE902}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
     <rPh sb="2" eb="4">
       <t>ﾆｯﾃｲ</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>李亨俊, 李吉宰</t>
@@ -71,7 +72,7 @@
     <rPh sb="2" eb="3">
       <t>ｼﾞｭﾝ</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>画面定義書</t>
@@ -81,99 +82,99 @@
     <rPh sb="2" eb="5">
       <t>ﾃｲｷﾞｼｮ</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>インターペース一覧</t>
     <rPh sb="7" eb="9">
       <t>ｲﾁﾗﾝ</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基本設計</t>
     <rPh sb="0" eb="4">
       <t>ｷﾎﾝｾｯｹｲ</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>実績</t>
     <rPh sb="0" eb="2">
       <t>ジッセキ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>工数</t>
     <rPh sb="0" eb="2">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>カテゴリ</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>タスク</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="2">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>終了日</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>予算</t>
     <rPh sb="0" eb="2">
       <t>ヨサン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>状態</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>基本設計</t>
@@ -183,110 +184,110 @@
     <rPh sb="2" eb="4">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>作成日：</t>
   </si>
   <si>
     <t>※工数 : 1h = 0.1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>SISホームページ開発</t>
     <rPh sb="9" eb="11">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>フェーズ（ローカル環境）</t>
     <rPh sb="9" eb="11">
       <t>カンキョウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>詳細設計</t>
     <rPh sb="0" eb="4">
       <t>ショウサイセッケイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>開発</t>
     <rPh sb="0" eb="2">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_000_共通画面.xlsx</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_001_メイン.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_003_サービス.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_004_採用情報.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_005_お問い合わせ.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_006_管理.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ER図</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>開始日2</t>
     <rPh sb="0" eb="2">
       <t>カイシ22222</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>終了日2</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ322</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>テーブル一覧</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>テーブル定義書</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>インターペース一覧</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>李吉宰</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>李亨俊</t>
@@ -299,22 +300,22 @@
     <rPh sb="1" eb="3">
       <t>トオルジュン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>李亨俊、李吉宰</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>李亨俊</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ER図作成ーER_001.erd</t>
     <rPh sb="3" eb="5">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>テーブル定義書作成ーテーブル定義書.xlsx</t>
@@ -324,76 +325,76 @@
     <rPh sb="14" eb="17">
       <t>テイギショ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>インターペース一覧作成ーインターペース一覧.xlsx</t>
     <rPh sb="9" eb="11">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>テーブル一覧作成ーTB_001.xlsx</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_002_001_会社紹介.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_002_002_CEO紹介.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_002_003_アクセス.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_002_004_パートナー.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>完了</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_006_001_会社紹介修正.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_006_002_CEO紹介修正.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_006_003_メニュー修正.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_006_004_パートナー修正.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_006_005_アクセス修正.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>テスト</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>リリズ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ER図</t>
     <rPh sb="2" eb="3">
       <t>ｽﾞ</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>テーブル一覧,テーブル定義書</t>
@@ -403,15 +404,15 @@
     <rPh sb="11" eb="14">
       <t>ﾃｲｷﾞｼｮ</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>画面定義書作成ーSC_002_会社概要_共通画面.xlsx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>李亨俊、李吉宰</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <r>
@@ -420,13 +421,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>完了</t>
@@ -436,11 +437,11 @@
     <rPh sb="0" eb="1">
       <t>オク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>11.19追加</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <r>
@@ -458,7 +459,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -467,7 +468,7 @@
     <rPh sb="5" eb="7">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>フィードバック対応のための遅延</t>
@@ -477,23 +478,23 @@
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>遅れ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -503,49 +504,56 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -557,7 +565,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -565,14 +573,14 @@
     <font>
       <b/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -585,7 +593,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -593,7 +601,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -607,7 +615,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -623,87 +631,87 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="25"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -714,7 +722,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,12 +762,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,7 +1309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1315,397 +1317,397 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="6" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="55" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="6" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="6" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{4BFE4416-9777-4886-9596-ED6DFFB7E2AF}"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1717,6 +1719,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1750,6 +1753,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1784,6 +1788,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
@@ -1816,6 +1821,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1849,6 +1855,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1882,9 +1889,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1915,9 +1923,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1948,9 +1957,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1981,9 +1991,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2014,6 +2025,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2047,6 +2059,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2079,6 +2092,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2118,6 +2132,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2148,6 +2163,8 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2264,7 +2281,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FEEBE40-993D-46D7-9CF0-04C42A2C8B0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FEEBE40-993D-46D7-9CF0-04C42A2C8B0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2344,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FA8E0A5-C93B-4984-85F5-1FA98EF16587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA8E0A5-C93B-4984-85F5-1FA98EF16587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2407,7 @@
         <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EFD3C88-53F4-263A-9CF9-811160E0C95B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFD3C88-53F4-263A-9CF9-811160E0C95B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2480,7 @@
         <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7080924-092A-4A4B-8185-3FCA96A56A01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7080924-092A-4A4B-8185-3FCA96A56A01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2553,7 @@
         <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A09DEBE5-3F6C-49FE-B635-F3CE6D73F145}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09DEBE5-3F6C-49FE-B635-F3CE6D73F145}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2626,7 @@
         <xdr:cNvPr id="17" name="正方形/長方形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04EA4CC8-5C88-4269-8FC9-3F8F96AC4F6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EA4CC8-5C88-4269-8FC9-3F8F96AC4F6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2699,7 @@
         <xdr:cNvPr id="19" name="正方形/長方形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA4C5ED2-41B9-4CA4-A9AD-37DC08DDC2B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4C5ED2-41B9-4CA4-A9AD-37DC08DDC2B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2739,23 +2756,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>180607</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>82063</xdr:rowOff>
+      <xdr:rowOff>87925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>179632</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179633</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>136063</xdr:rowOff>
+      <xdr:rowOff>141925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="正方形/長方形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1B5BD54-67F6-4F27-AABC-0068FA597C6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B5BD54-67F6-4F27-AABC-0068FA597C6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4664684" y="1676401"/>
+          <a:off x="5391515" y="1682263"/>
           <a:ext cx="180733" cy="54000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2812,23 +2829,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>5861</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5860</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>82062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>4886</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4885</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>130200</xdr:rowOff>
+      <xdr:rowOff>136062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67B7CB79-497B-4EA1-81A8-F467F0C17E9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B7CB79-497B-4EA1-81A8-F467F0C17E9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2853,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4853353" y="1881554"/>
+          <a:off x="5580183" y="1887416"/>
           <a:ext cx="180733" cy="54000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2901,7 +2918,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{965AF2AD-9E6D-4FB4-8628-BA6E0033B8BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965AF2AD-9E6D-4FB4-8628-BA6E0033B8BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,7 +2991,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75D56B46-53E2-4C6F-A88A-7214A55ADE42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D56B46-53E2-4C6F-A88A-7214A55ADE42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,86 +3048,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180610</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3788</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>138675</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180610</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>145587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 1">
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35C1495B-ECB2-42DB-8878-3FB7A47E2310}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="1940169" y="1872029"/>
-          <a:ext cx="3788" cy="72000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>5861</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>4886</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23A26DB0-FD85-4DFD-B322-079267BDE8EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B8F511-3525-400A-B462-EBE2B2957F13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,8 +3072,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4853353" y="1881554"/>
-          <a:ext cx="180733" cy="54000"/>
+          <a:off x="4664687" y="1685925"/>
+          <a:ext cx="363415" cy="54000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3169,21 +3123,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル823" displayName="テーブル823" ref="A4:L54" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A4:L54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C889675E-FC1E-447F-8C4D-4D5F1B4AE51D}" name="テーブル823" displayName="テーブル823" ref="A4:L54" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A4:L54" xr:uid="{3A71DD3F-AD99-4833-827B-01DABA570ABD}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="カテゴリ" dataDxfId="11"/>
-    <tableColumn id="2" name="タスク" dataDxfId="10"/>
-    <tableColumn id="3" name="担当" dataDxfId="9"/>
-    <tableColumn id="4" name="開始日" dataDxfId="8"/>
-    <tableColumn id="5" name="終了日" dataDxfId="7"/>
-    <tableColumn id="6" name="開始日2" dataDxfId="6"/>
-    <tableColumn id="7" name="終了日2" dataDxfId="5"/>
-    <tableColumn id="8" name="予算" dataDxfId="4"/>
-    <tableColumn id="9" name="実績" dataDxfId="3"/>
-    <tableColumn id="12" name="状態" dataDxfId="2"/>
-    <tableColumn id="10" name="進捗" dataDxfId="1"/>
-    <tableColumn id="13" name="備考" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BCCD6BAD-2EB8-4A6D-BE3F-695B9568C97E}" name="カテゴリ" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{664211D8-B652-46F8-B08D-9DCC002EAE5E}" name="タスク" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E8D957E2-D7A9-4621-B9BF-A5DE580E17F5}" name="担当" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{957060E1-C24A-4A01-BFA0-FF0C4DA70925}" name="開始日" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{CBFE868C-4D7A-40C7-96EB-1DC6594E098E}" name="終了日" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C27A48ED-4622-466C-B8D8-723683AA9220}" name="開始日2" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{FFEB9A80-921A-4299-9A66-891A01992F70}" name="終了日2" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{A07E3525-A944-4A68-8E60-5E220D4CC5DD}" name="予算" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{690295F8-E0B8-4284-A607-54C0F99C85CF}" name="実績" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{A00DA480-A7EB-43BB-A814-3F761163D6A0}" name="状態" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{0C2B57B1-8394-4757-A9D8-59051C9D49B9}" name="進捗" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{F7BDC539-2D3D-4A80-BED6-D4B360DA7511}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3570,23 +3524,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="54" customWidth="1"/>
-    <col min="3" max="42" width="2.44140625" style="54" customWidth="1"/>
-    <col min="43" max="43" width="2.33203125" style="54" customWidth="1"/>
-    <col min="44" max="16384" width="8.88671875" style="54"/>
+    <col min="1" max="1" width="2.796875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" style="54" customWidth="1"/>
+    <col min="3" max="42" width="2.3984375" style="54" customWidth="1"/>
+    <col min="43" max="43" width="2.296875" style="54" customWidth="1"/>
+    <col min="44" max="16384" width="8.8984375" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="5.25" customHeight="1">
@@ -3629,7 +3583,7 @@
       <c r="A3" s="116"/>
       <c r="B3" s="116"/>
     </row>
-    <row r="4" spans="1:41" ht="20.25">
+    <row r="4" spans="1:41" ht="16.2">
       <c r="A4" s="117"/>
       <c r="B4" s="118"/>
       <c r="C4" s="56" t="s">
@@ -4013,65 +3967,54 @@
       <c r="AO12" s="70"/>
     </row>
     <row r="13" spans="1:41" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="89"/>
-      <c r="AO13" s="70"/>
+      <c r="B13" s="91"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="115"/>
     </row>
     <row r="14" spans="1:41" ht="17.100000000000001" customHeight="1">
-      <c r="B14" s="91"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="115"/>
-      <c r="AB14" s="115"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
     </row>
     <row r="15" spans="1:41" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="92"/>
       <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
     </row>
     <row r="16" spans="1:41" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="92"/>
@@ -4177,52 +4120,19 @@
     </row>
     <row r="19" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-      <c r="AF19" s="92"/>
-    </row>
-    <row r="20" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="92"/>
-    </row>
+    </row>
+    <row r="20" spans="1:32" ht="17.100000000000001" customHeight="1"/>
     <row r="21" spans="1:32" ht="17.100000000000001" customHeight="1"/>
     <row r="22" spans="1:32" ht="17.100000000000001" customHeight="1"/>
     <row r="23" spans="1:32" ht="17.100000000000001" customHeight="1"/>
     <row r="24" spans="1:32" ht="17.100000000000001" customHeight="1"/>
-    <row r="25" spans="1:32" ht="17.100000000000001" customHeight="1"/>
-    <row r="26" spans="1:32" ht="18" customHeight="1"/>
+    <row r="25" spans="1:32" ht="18" customHeight="1"/>
+    <row r="26" spans="1:32" ht="17.100000000000001" customHeight="1"/>
     <row r="27" spans="1:32" ht="17.100000000000001" customHeight="1"/>
     <row r="28" spans="1:32" ht="17.100000000000001" customHeight="1"/>
     <row r="29" spans="1:32" ht="17.100000000000001" customHeight="1"/>
     <row r="30" spans="1:32" ht="17.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:32" ht="17.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:32" ht="20.100000000000001" customHeight="1"/>
     <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1"/>
     <row r="33" ht="20.100000000000001" customHeight="1"/>
     <row r="34" ht="20.100000000000001" customHeight="1"/>
@@ -4233,19 +4143,18 @@
     <row r="39" ht="20.100000000000001" customHeight="1"/>
     <row r="40" ht="20.100000000000001" customHeight="1"/>
     <row r="41" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="7">
     <mergeCell ref="AH4:AO4"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="T14:AB14"/>
+    <mergeCell ref="T13:AB13"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="O4:T4"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4255,25 +4164,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2699B468-173D-4E9A-9381-5350E7C7F687}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="3" customWidth="1"/>
-    <col min="4" max="7" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.88671875" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="8.77734375" style="3"/>
+    <col min="1" max="1" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.09765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.8984375" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
@@ -4319,7 +4229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="24">
+    <row r="3" spans="1:14" ht="18">
       <c r="A3" s="124" t="s">
         <v>21</v>
       </c>
@@ -4417,7 +4327,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="26"/>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -4452,7 +4362,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="52"/>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -4520,7 +4430,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="52"/>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -4588,7 +4498,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="52"/>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -4622,7 +4532,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="26"/>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="28" t="s">
@@ -4656,7 +4566,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="52"/>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -4724,7 +4634,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="52"/>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -4794,7 +4704,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="52"/>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="20" t="s">
@@ -4862,7 +4772,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="52"/>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -4967,7 +4877,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="17.399999999999999">
       <c r="A22" s="101"/>
       <c r="B22" s="27" t="s">
         <v>66</v>
@@ -5003,11 +4913,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="14.4">
       <c r="A23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -5042,7 +4952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="14.4">
       <c r="A24" s="26" t="s">
         <v>34</v>
       </c>
@@ -5058,7 +4968,9 @@
       <c r="E24" s="106">
         <v>45624</v>
       </c>
-      <c r="F24" s="37"/>
+      <c r="F24" s="37">
+        <v>45629</v>
+      </c>
       <c r="G24" s="37"/>
       <c r="H24" s="30">
         <v>0.4</v>
@@ -5073,7 +4985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" ht="14.4">
       <c r="A25" s="52" t="s">
         <v>35</v>
       </c>
@@ -5089,14 +5001,24 @@
       <c r="E25" s="106">
         <v>45625</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
+      <c r="F25" s="40">
+        <v>45628</v>
+      </c>
+      <c r="G25" s="40">
+        <v>45628</v>
+      </c>
       <c r="H25" s="22">
         <v>0.4</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="107"/>
+      <c r="I25" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="24">
+        <v>1</v>
+      </c>
       <c r="L25" s="110" t="s">
         <v>69</v>
       </c>
@@ -5104,21 +5026,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="14.4">
       <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="129" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="106">
-        <v>45623</v>
+        <v>45629</v>
       </c>
       <c r="E26" s="106">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -5543,7 +5465,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/SISホームページ/SISスケジュール（李亨俊、李吉宰）.xlsx
+++ b/SISホームページ/SISスケジュール（李亨俊、李吉宰）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisnt\OneDrive\デスクトップ\project_SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A57ED0-3256-429E-B735-15BEA46CA32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80897933-5473-4F35-8106-0016BA5EE21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>開発日程</t>
     <rPh sb="0" eb="2">
@@ -1313,7 +1313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1635,9 +1635,6 @@
     <xf numFmtId="14" fontId="8" fillId="7" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1650,6 +1647,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1700,9 +1700,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3531,7 +3528,7 @@
   <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="AQ7"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8"/>
@@ -4167,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2699B468-173D-4E9A-9381-5350E7C7F687}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4830,7 +4827,7 @@
       <c r="I20" s="38">
         <v>0.2</v>
       </c>
-      <c r="J20" s="108" t="s">
+      <c r="J20" s="107" t="s">
         <v>50</v>
       </c>
       <c r="K20" s="32">
@@ -4903,7 +4900,7 @@
       <c r="I22" s="103">
         <v>2</v>
       </c>
-      <c r="J22" s="108" t="s">
+      <c r="J22" s="107" t="s">
         <v>50</v>
       </c>
       <c r="K22" s="104">
@@ -4941,11 +4938,13 @@
       <c r="I23" s="41">
         <v>0.4</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="107">
-        <v>0.5</v>
-      </c>
-      <c r="L23" s="110" t="s">
+      <c r="J23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="24">
+        <v>1</v>
+      </c>
+      <c r="L23" s="109" t="s">
         <v>64</v>
       </c>
       <c r="M23" t="s">
@@ -4971,14 +4970,22 @@
       <c r="F24" s="37">
         <v>45629</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="37">
+        <v>45629</v>
+      </c>
       <c r="H24" s="30">
         <v>0.4</v>
       </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="111" t="s">
+      <c r="I24" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="J24" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="104">
+        <v>1</v>
+      </c>
+      <c r="L24" s="110" t="s">
         <v>69</v>
       </c>
       <c r="M24" t="s">
@@ -4989,7 +4996,7 @@
       <c r="A25" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="108" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -5019,7 +5026,7 @@
       <c r="K25" s="24">
         <v>1</v>
       </c>
-      <c r="L25" s="110" t="s">
+      <c r="L25" s="109" t="s">
         <v>69</v>
       </c>
       <c r="M25" t="s">
@@ -5030,7 +5037,7 @@
       <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="111" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -5042,15 +5049,25 @@
       <c r="E26" s="106">
         <v>45629</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="F26" s="37">
+        <v>45629</v>
+      </c>
+      <c r="G26" s="37">
+        <v>45629</v>
+      </c>
       <c r="H26" s="30">
         <v>0.4</v>
       </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="33"/>
+      <c r="I26" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="J26" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="104">
+        <v>1</v>
+      </c>
+      <c r="L26" s="110"/>
       <c r="M26" t="s">
         <v>67</v>
       </c>
